--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12036"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>tp</t>
   </si>
@@ -38,13 +38,33 @@
   <si>
     <t>64*32</t>
   </si>
+  <si>
+    <t>tpr</t>
+  </si>
+  <si>
+    <t>fpr</t>
+  </si>
+  <si>
+    <t>f1 score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,8 +105,1067 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ROC Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.7003222341568195E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.852884982804738E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12792670512385476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1833648393194699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95294117647058818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76506024096385539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7334630350194552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77393075356415475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348899408"/>
+        <c:axId val="348898624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="348899408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>fpr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348898624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="348898624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>tpr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348899408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -131,7 +1211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,7 +1246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,35 +1455,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -422,8 +1514,20 @@
       <c r="F2">
         <v>10</v>
       </c>
+      <c r="G2">
+        <f>(H2)/(H2+F2)</f>
+        <v>8.7003222341568195E-2</v>
+      </c>
+      <c r="H2">
+        <f>(B2)/(B2+E2)</f>
+        <v>0.95294117647058818</v>
+      </c>
+      <c r="I2">
+        <f>2*B2/(2*B2+D2+E2)</f>
+        <v>0.92465753424657537</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -442,8 +1546,20 @@
       <c r="F3">
         <v>15</v>
       </c>
+      <c r="G3">
+        <f>(H3)/(H3+F3)</f>
+        <v>4.852884982804738E-2</v>
+      </c>
+      <c r="H3">
+        <f>(B3)/(B3+E3)</f>
+        <v>0.76506024096385539</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="0">2*B3/(2*B3+D3+E3)</f>
+        <v>0.85810810810810811</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -462,8 +1578,20 @@
       <c r="F4">
         <v>5</v>
       </c>
+      <c r="G4">
+        <f>(H4)/(H4+F4)</f>
+        <v>0.12792670512385476</v>
+      </c>
+      <c r="H4">
+        <f>(B4)/(B4+E4)</f>
+        <v>0.7334630350194552</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.83407079646017701</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -481,10 +1609,24 @@
       </c>
       <c r="F5">
         <v>10</v>
+      </c>
+      <c r="G5">
+        <f>(H5)/(H5+F5)</f>
+        <v>7.1833648393194699E-2</v>
+      </c>
+      <c r="H5">
+        <f>(B5)/(B5+E5)</f>
+        <v>0.77393075356415475</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.86265607264472188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
